--- a/交流管理/项目周报/牛锐胜周报.xlsx
+++ b/交流管理/项目周报/牛锐胜周报.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="今日" sheetId="4" r:id="rId1"/>
     <sheet name="历史" sheetId="5" r:id="rId2"/>
     <sheet name="呆滞" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="20171020" sheetId="8" r:id="rId5"/>
+    <sheet name="20171027" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="99">
   <si>
     <t>完成率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +338,23 @@
   </si>
   <si>
     <t>立刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写发布检查表</t>
+  </si>
+  <si>
+    <t>用户中心同步用户身份代码完成</t>
+  </si>
+  <si>
+    <t>用户中心后台管理需求</t>
+  </si>
+  <si>
+    <t>项目会议及UML建模培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面调整及BUG修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -565,11 +583,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,6 +664,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2017,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2176,4 +2237,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="19">
+        <v>424</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>43027</v>
+      </c>
+      <c r="I3" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>43035</v>
+      </c>
+      <c r="I4" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="24">
+        <f>SUM(I2:I6)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>